--- a/Modello/nuovi modelli/CasiTest/test1/Soluzioni-1.xlsx
+++ b/Modello/nuovi modelli/CasiTest/test1/Soluzioni-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ADDITIVE-MODEL" sheetId="4" r:id="rId1"/>
@@ -2909,7 +2909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:AL230"/>
     </sheetView>
   </sheetViews>
@@ -4868,7 +4868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:AL161"/>
     </sheetView>
   </sheetViews>
@@ -11088,7 +11088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:AL61"/>
     </sheetView>
   </sheetViews>
